--- a/C题/附件.xlsx
+++ b/C题/附件.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021-9-7\数学建模竞赛组委会、专家组工作\竞赛2022\定稿\中文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\program\C202209\C题\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F873F7-A9C1-4D9D-B0DB-5514E111A014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表单1" sheetId="1" r:id="rId1"/>
     <sheet name="表单2" sheetId="2" r:id="rId2"/>
     <sheet name="表单3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">表单1!$A$1:$E$59</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -1676,7 +1680,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -2105,7 +2109,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 6"/>
+        <xdr:cNvPr id="6" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2160,7 +2170,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2279,6 +2295,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2314,6 +2347,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2489,22 +2539,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="10.6328125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="10.625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="10.625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="21" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="21" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>149</v>
       </c>
@@ -2521,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>113</v>
       </c>
@@ -2538,7 +2588,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>115</v>
       </c>
@@ -2555,7 +2605,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -2572,7 +2622,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>31</v>
       </c>
@@ -2589,7 +2639,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
@@ -2606,7 +2656,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -2623,7 +2673,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>112</v>
       </c>
@@ -2640,7 +2690,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>104</v>
       </c>
@@ -2657,7 +2707,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -2674,7 +2724,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
@@ -2691,7 +2741,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>116</v>
       </c>
@@ -2708,7 +2758,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
@@ -2725,7 +2775,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
@@ -2742,7 +2792,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
@@ -2759,7 +2809,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
@@ -2776,7 +2826,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
@@ -2793,7 +2843,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>40</v>
       </c>
@@ -2810,7 +2860,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>41</v>
       </c>
@@ -2827,7 +2877,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>42</v>
       </c>
@@ -2842,7 +2892,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>43</v>
       </c>
@@ -2859,7 +2909,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>114</v>
       </c>
@@ -2876,7 +2926,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>117</v>
       </c>
@@ -2893,7 +2943,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>119</v>
       </c>
@@ -2910,7 +2960,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>44</v>
       </c>
@@ -2927,7 +2977,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>45</v>
       </c>
@@ -2944,7 +2994,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>46</v>
       </c>
@@ -2961,7 +3011,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>111</v>
       </c>
@@ -2978,7 +3028,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>47</v>
       </c>
@@ -2995,7 +3045,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>48</v>
       </c>
@@ -3012,7 +3062,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>49</v>
       </c>
@@ -3029,7 +3079,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>118</v>
       </c>
@@ -3046,7 +3096,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>50</v>
       </c>
@@ -3063,7 +3113,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>51</v>
       </c>
@@ -3080,7 +3130,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>52</v>
       </c>
@@ -3097,7 +3147,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>53</v>
       </c>
@@ -3114,7 +3164,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>54</v>
       </c>
@@ -3131,7 +3181,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>55</v>
       </c>
@@ -3148,7 +3198,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
         <v>56</v>
       </c>
@@ -3165,7 +3215,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>57</v>
       </c>
@@ -3182,7 +3232,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>58</v>
       </c>
@@ -3197,7 +3247,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>59</v>
       </c>
@@ -3214,7 +3264,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>60</v>
       </c>
@@ -3231,7 +3281,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>120</v>
       </c>
@@ -3248,7 +3298,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
         <v>61</v>
       </c>
@@ -3265,7 +3315,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
         <v>62</v>
       </c>
@@ -3282,7 +3332,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>63</v>
       </c>
@@ -3299,7 +3349,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
         <v>64</v>
       </c>
@@ -3316,7 +3366,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>65</v>
       </c>
@@ -3331,7 +3381,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
         <v>66</v>
       </c>
@@ -3348,7 +3398,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>67</v>
       </c>
@@ -3365,7 +3415,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
         <v>68</v>
       </c>
@@ -3382,7 +3432,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>69</v>
       </c>
@@ -3399,7 +3449,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
         <v>121</v>
       </c>
@@ -3416,7 +3466,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>70</v>
       </c>
@@ -3433,7 +3483,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>71</v>
       </c>
@@ -3450,7 +3500,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>72</v>
       </c>
@@ -3467,7 +3517,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
         <v>73</v>
       </c>
@@ -3484,7 +3534,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>74</v>
       </c>
@@ -3500,7 +3550,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K59">
     <sortCondition ref="A2:A59"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3511,22 +3561,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="14" customWidth="1"/>
-    <col min="2" max="15" width="10.6328125" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="12"/>
+    <col min="1" max="1" width="12.625" style="14" customWidth="1"/>
+    <col min="2" max="15" width="10.625" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="8.75" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
         <v>142</v>
       </c>
@@ -3573,7 +3623,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>143</v>
       </c>
@@ -3610,7 +3660,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>95</v>
       </c>
@@ -3649,7 +3699,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -3682,7 +3732,7 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -3723,7 +3773,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -3760,7 +3810,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -3799,7 +3849,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>93</v>
       </c>
@@ -3838,7 +3888,7 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>94</v>
       </c>
@@ -3879,7 +3929,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -3910,7 +3960,7 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -3947,7 +3997,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>148</v>
       </c>
@@ -3984,7 +4034,7 @@
         <v>15.03</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -4017,7 +4067,7 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
@@ -4048,7 +4098,7 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>96</v>
       </c>
@@ -4087,7 +4137,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
@@ -4120,7 +4170,7 @@
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
     </row>
-    <row r="17" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>75</v>
       </c>
@@ -4155,7 +4205,7 @@
       <c r="N17" s="11"/>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>37</v>
       </c>
@@ -4194,7 +4244,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="13"/>
     </row>
-    <row r="19" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>38</v>
       </c>
@@ -4233,7 +4283,7 @@
       <c r="N19" s="11"/>
       <c r="O19" s="13"/>
     </row>
-    <row r="20" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>39</v>
       </c>
@@ -4274,7 +4324,7 @@
       <c r="N20" s="11"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
@@ -4313,7 +4363,7 @@
       </c>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>41</v>
       </c>
@@ -4346,7 +4396,7 @@
       </c>
       <c r="O22" s="13"/>
     </row>
-    <row r="23" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>42</v>
       </c>
@@ -4385,7 +4435,7 @@
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
     </row>
-    <row r="24" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
@@ -4420,7 +4470,7 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
     </row>
-    <row r="25" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>82</v>
       </c>
@@ -4457,7 +4507,7 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
     </row>
-    <row r="26" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>21</v>
       </c>
@@ -4492,7 +4542,7 @@
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
     </row>
-    <row r="27" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>98</v>
       </c>
@@ -4529,7 +4579,7 @@
       <c r="N27" s="11"/>
       <c r="O27" s="13"/>
     </row>
-    <row r="28" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>44</v>
       </c>
@@ -4564,7 +4614,7 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>100</v>
       </c>
@@ -4603,7 +4653,7 @@
       <c r="N29" s="11"/>
       <c r="O29" s="13"/>
     </row>
-    <row r="30" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>141</v>
       </c>
@@ -4640,7 +4690,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>147</v>
       </c>
@@ -4679,7 +4729,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>76</v>
       </c>
@@ -4712,7 +4762,7 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
     </row>
-    <row r="33" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>169</v>
       </c>
@@ -4755,7 +4805,7 @@
       </c>
       <c r="O33" s="13"/>
     </row>
-    <row r="34" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>83</v>
       </c>
@@ -4798,7 +4848,7 @@
       <c r="N34" s="11"/>
       <c r="O34" s="13"/>
     </row>
-    <row r="35" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>77</v>
       </c>
@@ -4837,7 +4887,7 @@
       </c>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>78</v>
       </c>
@@ -4876,7 +4926,7 @@
       </c>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>97</v>
       </c>
@@ -4915,7 +4965,7 @@
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
     </row>
-    <row r="38" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>17</v>
       </c>
@@ -4952,7 +5002,7 @@
       <c r="N38" s="11"/>
       <c r="O38" s="13"/>
     </row>
-    <row r="39" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>18</v>
       </c>
@@ -4989,7 +5039,7 @@
       <c r="N39" s="11"/>
       <c r="O39" s="13"/>
     </row>
-    <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>19</v>
       </c>
@@ -5028,7 +5078,7 @@
       <c r="N40" s="11"/>
       <c r="O40" s="13"/>
     </row>
-    <row r="41" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>53</v>
       </c>
@@ -5063,7 +5113,7 @@
       <c r="N41" s="11"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>54</v>
       </c>
@@ -5104,7 +5154,7 @@
       <c r="N42" s="11"/>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>99</v>
       </c>
@@ -5143,7 +5193,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>56</v>
       </c>
@@ -5182,7 +5232,7 @@
       <c r="N44" s="11"/>
       <c r="O44" s="13"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>57</v>
       </c>
@@ -5217,7 +5267,7 @@
       <c r="N45" s="11"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>58</v>
       </c>
@@ -5252,7 +5302,7 @@
       <c r="N46" s="11"/>
       <c r="O46" s="13"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>59</v>
       </c>
@@ -5293,7 +5343,7 @@
       <c r="N47" s="11"/>
       <c r="O47" s="13"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>85</v>
       </c>
@@ -5334,7 +5384,7 @@
       <c r="N48" s="11"/>
       <c r="O48" s="13"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>86</v>
       </c>
@@ -5369,7 +5419,7 @@
       <c r="N49" s="11"/>
       <c r="O49" s="13"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>102</v>
       </c>
@@ -5406,7 +5456,7 @@
       <c r="N50" s="11"/>
       <c r="O50" s="13"/>
     </row>
-    <row r="51" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>103</v>
       </c>
@@ -5445,7 +5495,7 @@
       <c r="N51" s="11"/>
       <c r="O51" s="13"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>84</v>
       </c>
@@ -5484,7 +5534,7 @@
       <c r="N52" s="11"/>
       <c r="O52" s="13"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>62</v>
       </c>
@@ -5523,7 +5573,7 @@
       <c r="N53" s="11"/>
       <c r="O53" s="13"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>63</v>
       </c>
@@ -5560,7 +5610,7 @@
       <c r="N54" s="11"/>
       <c r="O54" s="13"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>64</v>
       </c>
@@ -5601,7 +5651,7 @@
       <c r="N55" s="11"/>
       <c r="O55" s="13"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>65</v>
       </c>
@@ -5644,7 +5694,7 @@
       </c>
       <c r="O56" s="13"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>87</v>
       </c>
@@ -5683,7 +5733,7 @@
       <c r="N57" s="11"/>
       <c r="O57" s="13"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>88</v>
       </c>
@@ -5724,7 +5774,7 @@
       <c r="N58" s="11"/>
       <c r="O58" s="13"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>20</v>
       </c>
@@ -5763,7 +5813,7 @@
       <c r="N59" s="11"/>
       <c r="O59" s="13"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>89</v>
       </c>
@@ -5800,7 +5850,7 @@
       <c r="N60" s="11"/>
       <c r="O60" s="13"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>90</v>
       </c>
@@ -5841,7 +5891,7 @@
       </c>
       <c r="O61" s="13"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>91</v>
       </c>
@@ -5876,7 +5926,7 @@
       <c r="N62" s="11"/>
       <c r="O62" s="13"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>79</v>
       </c>
@@ -5917,7 +5967,7 @@
       <c r="N63" s="11"/>
       <c r="O63" s="13"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>101</v>
       </c>
@@ -5956,7 +6006,7 @@
       <c r="N64" s="11"/>
       <c r="O64" s="13"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>80</v>
       </c>
@@ -5995,7 +6045,7 @@
       <c r="N65" s="11"/>
       <c r="O65" s="13"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>146</v>
       </c>
@@ -6028,7 +6078,7 @@
       <c r="N66" s="11"/>
       <c r="O66" s="13"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>81</v>
       </c>
@@ -6063,7 +6113,7 @@
       <c r="N67" s="11"/>
       <c r="O67" s="13"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>72</v>
       </c>
@@ -6096,7 +6146,7 @@
       <c r="N68" s="11"/>
       <c r="O68" s="13"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>73</v>
       </c>
@@ -6127,7 +6177,7 @@
       <c r="N69" s="11"/>
       <c r="O69" s="13"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>74</v>
       </c>
@@ -6169,7 +6219,7 @@
       <c r="O70" s="11"/>
     </row>
   </sheetData>
-  <sortState ref="A2:O71">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O71">
     <sortCondition ref="A2:A71"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6179,19 +6229,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.6328125" style="1" customWidth="1"/>
-    <col min="3" max="16" width="9.6328125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="2" width="9.625" style="1" customWidth="1"/>
+    <col min="3" max="16" width="9.625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="30.75" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>140</v>
       </c>
@@ -6241,7 +6291,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
@@ -6281,7 +6331,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
@@ -6313,7 +6363,7 @@
       <c r="O3" s="11"/>
       <c r="P3" s="19"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
         <v>24</v>
       </c>
@@ -6357,7 +6407,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="19"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
         <v>25</v>
       </c>
@@ -6401,7 +6451,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
         <v>26</v>
       </c>
@@ -6449,7 +6499,7 @@
       </c>
       <c r="P6" s="19"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -6487,7 +6537,7 @@
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
         <v>28</v>
       </c>
@@ -6525,7 +6575,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
         <v>29</v>
       </c>
